--- a/Assignment 4 - Sub Queries and Table Expressions/Pair 1 - Jaskaran & Ashly/TuTh1045to12-Pair1-TodolistHW4.xlsx
+++ b/Assignment 4 - Sub Queries and Table Expressions/Pair 1 - Jaskaran & Ashly/TuTh1045to12-Pair1-TodolistHW4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaskaran/Documents/GitHub/CSCI331Group1/Assignment 4 - Sub Queries and Table Expressions/Pair 1 - Jaskaran &amp; Ashly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA487FCE-6D46-BF4E-91AF-C48A321A7612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D55234-50E6-904A-B052-23F80E9ED7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group member 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="RowTitleRegion1..D4">'Group member 1'!$C$3:$D$3</definedName>
     <definedName name="Title">'Group member 1'!$C$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="44">
   <si>
     <t>To-do list</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Date: 2/24/25</t>
+  </si>
+  <si>
+    <t>5 Days</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1225,8 @@
   </sheetPr>
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1377,7 @@
         <v>45723</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
